--- a/P6.xlsx
+++ b/P6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramas\OneDrive\Desktop\practical sem 2\excel paractical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2D8F2-6E30-4C46-A669-61F9F2BF1FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558901D4-4F8E-4CFE-AD37-57F81BE47930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,15 +56,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Practical : 6</t>
   </si>
   <si>
     <t>Group A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roll no </t>
   </si>
   <si>
     <t>Blocks</t>
@@ -227,12 +224,66 @@
   <si>
     <t xml:space="preserve">Treatment difference table </t>
   </si>
+  <si>
+    <t>Ti_bar</t>
+  </si>
+  <si>
+    <t>Name : Ramashish kumar</t>
+  </si>
+  <si>
+    <t>Roll no : 24056765001</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>̄</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +322,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -303,11 +363,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -318,6 +398,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,266 +685,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>6.9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="3">
         <v>4.8099999999999996</v>
       </c>
-      <c r="G6" s="3">
-        <f>SUM(C6:F6)</f>
+      <c r="G7" s="3">
+        <f>SUM(C7:F7)</f>
         <v>20.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.48</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5.57</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4.28</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.45</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G11" si="0">SUM(C7:F7)</f>
-        <v>20.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="3">
+        <f>AVERAGE(C7:F7)</f>
+        <v>5.1775000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.48</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.57</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.28</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8:G12" si="0">SUM(C8:F8)</f>
+        <v>20.78</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" ref="H8:H12" si="1">AVERAGE(C8:F8)</f>
+        <v>5.1950000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>6.52</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>7.6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>5.8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>5.3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>25.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5">
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3049999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>6.9</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>6.67</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>6.75</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>7.5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>27.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5">
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9550000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>6.18</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>6.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>5.5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>24.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5">
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0449999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>7.9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>6.67</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>6.8</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>6.62</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>27.990000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
-        <f>SUM(C6:C11)</f>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9975000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <f>SUM(C7:C12)</f>
         <v>40.699999999999996</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:G12" si="1">SUM(D6:D11)</f>
+      <c r="D13" s="3">
+        <f t="shared" ref="D13:G13" si="2">SUM(D7:D12)</f>
         <v>37.29</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="1"/>
+      <c r="E13" s="3">
+        <f t="shared" si="2"/>
         <v>34.53</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="1"/>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
         <v>34.18</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="1"/>
+      <c r="G13" s="3">
+        <f t="shared" si="2"/>
         <v>146.70000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="2" t="s">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <f>G13^2/COUNT(C7:F12)</f>
+        <v>896.70375000000024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2">
-        <f>G12^2/COUNT(C6:F11)</f>
-        <v>896.70375000000024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" cm="1">
+        <f t="array" ref="D17">SUMPRODUCT(C7:F12^2)-D16</f>
+        <v>25.266049999999836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" cm="1">
-        <f t="array" ref="D16">SUMPRODUCT(C6:F11^2)-D15</f>
-        <v>25.266049999999836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" cm="1">
+        <f t="array" ref="D18">(SUMPRODUCT(G7:G12^2)/4)-D16</f>
+        <v>13.002699999999777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" cm="1">
-        <f t="array" ref="D17">(SUMPRODUCT(G6:G11^2)/4)-D15</f>
-        <v>13.002699999999777</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="s">
+      <c r="D19" s="2" cm="1">
+        <f t="array" ref="D19">(SUMPRODUCT(C13:F13^2)/6)-D16</f>
+        <v>4.5674833333330298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" cm="1">
-        <f t="array" ref="D18">(SUMPRODUCT(C12:F12^2)/6)-D15</f>
-        <v>4.5674833333330298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <f>D16-D17-D18</f>
+      <c r="D20" s="2">
+        <f>D17-D18-D19</f>
         <v>7.6958666666670297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
@@ -866,9 +987,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="C24" s="2" t="s">
-        <v>23</v>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
@@ -876,58 +997,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <f>D17</f>
-        <v>13.002699999999777</v>
-      </c>
-      <c r="D29" s="3">
-        <f>C29/B29</f>
-        <v>2.6005399999999552</v>
-      </c>
-      <c r="E29" s="3">
-        <f>D29/D31</f>
-        <v>5.0687078778215353</v>
-      </c>
-      <c r="F29" s="3">
-        <f>_xlfn.F.INV.RT(0.05,B29,B31)</f>
-        <v>2.9012945362361564</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -935,85 +1037,225 @@
         <v>3</v>
       </c>
       <c r="B30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <f>D18</f>
-        <v>4.5674833333330298</v>
+        <v>13.002699999999777</v>
       </c>
       <c r="D30" s="3">
         <f>C30/B30</f>
-        <v>1.5224944444443433</v>
+        <v>2.6005399999999552</v>
       </c>
       <c r="E30" s="3">
-        <f>D30/D31</f>
-        <v>2.9674912074010389</v>
+        <f>D30/D32</f>
+        <v>5.0687078778215353</v>
       </c>
       <c r="F30" s="3">
-        <f>_xlfn.F.INV.RT(0.05,B30,B31)</f>
-        <v>3.2873821046365093</v>
+        <f>_xlfn.F.INV.RT(0.05,B30,B32)</f>
+        <v>2.9012945362361564</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3">
         <f>D19</f>
-        <v>7.6958666666670297</v>
+        <v>4.5674833333330298</v>
       </c>
       <c r="D31" s="3">
         <f>C31/B31</f>
-        <v>0.51305777777780193</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>1.5224944444443433</v>
+      </c>
+      <c r="E31" s="3">
+        <f>D31/D32</f>
+        <v>2.9674912074010389</v>
+      </c>
+      <c r="F31" s="3">
+        <f>_xlfn.F.INV.RT(0.05,B31,B32)</f>
+        <v>3.2873821046365093</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3">
-        <f>D16</f>
-        <v>25.266049999999836</v>
-      </c>
-      <c r="D32" s="3"/>
+        <f>D20</f>
+        <v>7.6958666666670297</v>
+      </c>
+      <c r="D32" s="3">
+        <f>C32/B32</f>
+        <v>0.51305777777780193</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34">
-        <f>_xlfn.T.INV.2T(0.05,B31)*(SQRT((2*D31)/4))</f>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
+        <f>D17</f>
+        <v>25.266049999999836</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.T.INV.2T(0.05,B32)*(SQRT((2*D32)/4))</f>
         <v>1.0795510813956297</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <f>(B31*D31+(4*B30*D32))/(B33*D32)</f>
+        <v>1.2566292879218746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C35">
-        <f>((B30*D30)+(4*B29*D31))/(B31*D31)</f>
-        <v>1.9268315748135412</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="3">
+        <v>5.1775000000000002</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="3">
+        <v>5.1950000000000003</v>
+      </c>
+      <c r="B40" s="3">
+        <f>ABS(A39-A40)</f>
+        <v>1.7500000000000071E-2</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="3">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="B41" s="3">
+        <f>ABS(A39-A41)</f>
+        <v>1.1274999999999995</v>
+      </c>
+      <c r="C41" s="3">
+        <f>ABS(A40-A41)</f>
+        <v>1.1099999999999994</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="3">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="B42" s="3">
+        <f>ABS(A39-A42)</f>
+        <v>1.7774999999999999</v>
+      </c>
+      <c r="C42" s="3">
+        <f>ABS(B40-B42)</f>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="D42" s="3">
+        <f>ABS(C41-C42)</f>
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="3">
+        <v>6.0449999999999999</v>
+      </c>
+      <c r="B43" s="3">
+        <f>ABS(A39-A43)</f>
+        <v>0.86749999999999972</v>
+      </c>
+      <c r="C43" s="3">
+        <f>ABS(B40-B43)</f>
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="D43" s="3">
+        <f>ABS(C41-C43)</f>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="E43" s="3">
+        <f>ABS(D42-D43)</f>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>6.9975000000000005</v>
+      </c>
+      <c r="B44" s="3">
+        <f>ABS(A39-A44)</f>
+        <v>1.8200000000000003</v>
+      </c>
+      <c r="C44" s="3">
+        <f>ABS(B40-B44)</f>
+        <v>1.8025000000000002</v>
+      </c>
+      <c r="D44" s="3">
+        <f>ABS(C41-C44)</f>
+        <v>0.69250000000000078</v>
+      </c>
+      <c r="E44" s="3">
+        <f>ABS(D42-D44)</f>
+        <v>4.2500000000000426E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <f>ABS(E43-E44)</f>
+        <v>0.34750000000000014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="C4:F4"/>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
